--- a/server/tests/data/excel/insert_script_test_data.xlsx
+++ b/server/tests/data/excel/insert_script_test_data.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:38</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Name must not be empty.</t>
+          <t>[{'type': 'missing', 'loc': ['body', 'name'], 'msg': 'Field required', 'input': {'description': '"Cho tôi mua hàng"', 'solution': 'Cho biết Tên, SDT'}}]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:38</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Description must not be empty.</t>
+          <t>[{'type': 'missing', 'loc': ['body', 'description'], 'msg': 'Field required', 'input': {'name': 'Đặt hàng', 'solution': 'Cho biết Tên, SDT'}}]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:38</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -753,12 +753,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Solution must not be empty.</t>
+          <t>[{'type': 'missing', 'loc': ['body', 'solution'], 'msg': 'Field required', 'input': {'name': 'Đặt hàng', 'description': '"Cho tôi mua hàng"'}}]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:38</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>

--- a/server/tests/data/excel/insert_script_test_data.xlsx
+++ b/server/tests/data/excel/insert_script_test_data.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:23</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:23</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:23</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:23</t>
         </is>
       </c>
     </row>

--- a/server/tests/data/excel/insert_script_test_data.xlsx
+++ b/server/tests/data/excel/insert_script_test_data.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:23</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:23</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:23</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:23</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
